--- a/biology/Médecine/Annales_de_biologie_clinique/Annales_de_biologie_clinique.xlsx
+++ b/biology/Médecine/Annales_de_biologie_clinique/Annales_de_biologie_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Revue officielle de la Société française de biologie clinique (SFBC), les Annales de biologie clinique sont une revue francophone de biologie polyvalente. Elles accompagnent les biologistes dans leurs démarches de formation continue, d’accréditation du laboratoire et de validation des techniques.
